--- a/_posts/resources/resources.xlsx
+++ b/_posts/resources/resources.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Topic</t>
   </si>
@@ -59,7 +59,16 @@
     <t>text mining</t>
   </si>
   <si>
-    <t>Amazing book covering text mining in R</t>
+    <t>An amazing book covering text mining in R</t>
+  </si>
+  <si>
+    <t>web scraping</t>
+  </si>
+  <si>
+    <t>How to webscrape football data by Ryo Nakagawara</t>
+  </si>
+  <si>
+    <t>&lt;a title = 'Intro to {polite} Web Scraping of Soccer Data with R!' href = 'https://ryo-n7.github.io/2020-05-14-webscrape-soccer-data-with-R/'&gt;Intro to {polite} Web Scraping of Soccer Data with R!&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,6 +443,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_posts/resources/resources.xlsx
+++ b/_posts/resources/resources.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Topic</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>&lt;a title = 'Intro to {polite} Web Scraping of Soccer Data with R!' href = 'https://ryo-n7.github.io/2020-05-14-webscrape-soccer-data-with-R/'&gt;Intro to {polite} Web Scraping of Soccer Data with R!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a title = 'Mastering Shiny' href = 'https://mastering-shiny.org/'&gt;Mastering Shiny&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mastering Shiny by Hadley Wickham</t>
+  </si>
+  <si>
+    <t>&lt;a title = 'Figure Layout Distill' href = 'https://rstudio.github.io/distill/figures.html'&gt;Figure Layout Distill&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Layout Size (Distill)</t>
+  </si>
+  <si>
+    <t>distill</t>
   </si>
 </sst>
 </file>
@@ -386,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,6 +469,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
